--- a/Python Working Notebooks/Production Tank Model results in Excel format/26MT excel results/26 Agitation results/26results - AG Overall.xlsx
+++ b/Python Working Notebooks/Production Tank Model results in Excel format/26MT excel results/26 Agitation results/26results - AG Overall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Thesis 2023\Capstone---CCT\Python Working Notebooks\Production Tank Model results in Excel format\26MT excel results\26 Agitation results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474E98E2-341F-4CE2-8F52-5C807C5F2566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397ED91D-B7AC-4395-B7C9-83A742FF6E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -316,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -403,6 +403,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1324,7 +1336,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="11" max="11" width="26.28515625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1385,28 +1397,28 @@
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="33">
         <v>3.2483399293662993E-2</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="34">
         <v>9.4142485098027862E-2</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="33">
         <v>0.31771473488846602</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="34">
         <v>0.45156274261001478</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="33">
         <v>0.96825907840447789</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="34">
         <v>0.90800934313278414</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="33">
         <v>0.2756104044542973</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="34">
         <v>-2.9563053150833959E-2</v>
       </c>
       <c r="K3" s="23" t="s">
@@ -1431,8 +1443,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="27" customWidth="1"/>
+    <col min="1" max="1" width="14" style="27" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="27" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="27"/>
     <col min="4" max="4" width="10" style="27" customWidth="1"/>
     <col min="5" max="10" width="9.140625" style="27"/>
@@ -1490,11 +1502,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="25.5">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:11" ht="38.25">
+      <c r="A3" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="25">

--- a/Python Working Notebooks/Production Tank Model results in Excel format/26MT excel results/26 Agitation results/26results - AG Overall.xlsx
+++ b/Python Working Notebooks/Production Tank Model results in Excel format/26MT excel results/26 Agitation results/26results - AG Overall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Thesis 2023\Capstone---CCT\Python Working Notebooks\Production Tank Model results in Excel format\26MT excel results\26 Agitation results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397ED91D-B7AC-4395-B7C9-83A742FF6E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700482FB-6D73-49A7-BD78-C9390B30369C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>Model</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>Top Performing Machine Model and Results  for Production Tanks  26MT  Agitation Phase</t>
-  </si>
-  <si>
-    <t>O</t>
   </si>
   <si>
     <t>Poor Performing Machine Model and Results  for Production Tanks  26MT  Agitation Phase</t>
@@ -173,7 +170,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +209,13 @@
       <color theme="1"/>
       <name val="Var(--jp-code-font-family)"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -239,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -312,19 +316,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -335,12 +360,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -363,12 +382,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -392,6 +405,18 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -404,18 +429,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -756,42 +785,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D30BEE9-A987-4EC0-BD42-596E701BB964}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" style="6" customWidth="1"/>
-    <col min="9" max="10" width="17.7109375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="50.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="39.85546875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75">
-      <c r="A1" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="29" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="34"/>
+    </row>
+    <row r="2" spans="1:20" ht="25.5">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -801,524 +830,524 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="23" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="23" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:20">
+      <c r="A3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="35">
         <v>0.77299480833725798</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="36">
         <v>0.77299480833725798</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="35">
         <v>1.0362352815918401</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="36">
         <v>1.0362352815918401</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="35">
         <v>0.24467364442473641</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="36">
         <v>0.24467364442473641</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="35">
         <v>-1.362616442029396</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="36">
         <v>-1.362616442029396</v>
       </c>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:20" ht="15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="4" t="s">
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="11"/>
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="35">
         <v>0.77359934571468136</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="36">
         <v>0.79204566031748658</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="35">
         <v>1.037707516097478</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="36">
         <v>1.063046519057504</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="35">
         <v>0.24408292504451121</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="36">
         <v>0.22605824048977011</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="35">
         <v>-1.365973136702251</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="36">
         <v>-1.4237460634511101</v>
       </c>
       <c r="K4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-    </row>
-    <row r="5" spans="1:20" ht="15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="4" t="s">
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="12"/>
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="35">
         <v>0.95092820534740807</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="36">
         <v>0.95092820918561083</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="35">
         <v>1.287750929235858</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="36">
         <v>1.287683723060193</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="35">
         <v>7.0807296489103888E-2</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="36">
         <v>7.0807292738631511E-2</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="35">
         <v>-1.9360721186577561</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="36">
         <v>-1.9359188885772409</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-    </row>
-    <row r="6" spans="1:20" ht="15">
-      <c r="A6" s="13" t="s">
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="35">
         <v>0.38367500662986592</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="36">
         <v>0.1238669590643275</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="35">
         <v>0.50841484639728862</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="36">
         <v>0.50421052631578989</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="35">
         <v>0.62509470780738807</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="36">
         <v>0.87896428571428564</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="35">
         <v>-0.15918584978581829</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="36">
         <v>-0.14960000000000109</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-    </row>
-    <row r="7" spans="1:20" ht="15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="4" t="s">
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+    </row>
+    <row r="7" spans="1:20" ht="25.5">
+      <c r="A7" s="12"/>
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="35">
         <v>3.2483399293662993E-2</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="36">
         <v>9.4142485098027862E-2</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="35">
         <v>0.31771473488846602</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="36">
         <v>0.45156274261001478</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="35">
         <v>0.96825907840447789</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="36">
         <v>0.90800934313278414</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="35">
         <v>0.2756104044542973</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="36">
         <v>-2.9563053150833959E-2</v>
       </c>
       <c r="K7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-    </row>
-    <row r="8" spans="1:20" ht="15">
-      <c r="A8" s="16" t="s">
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="35">
         <v>0.36712150747238459</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="36">
         <v>0</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="35">
         <v>0.67910259187062294</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="36">
         <v>1.169590643274854</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="35">
         <v>0.64126984126984121</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="36">
         <v>1</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="35">
         <v>-0.54835390946502049</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="36">
         <v>-1.666666666666667</v>
       </c>
       <c r="K8" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-    </row>
-    <row r="9" spans="1:20" ht="15">
-      <c r="A9" s="13" t="s">
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+    </row>
+    <row r="9" spans="1:20" ht="25.5">
+      <c r="A9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="35">
         <v>0.1151023391812865</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="36">
         <v>0.1846365960214208</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="35">
         <v>0.45321637426900607</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="36">
         <v>0.43288082428824631</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="35">
         <v>0.88752857142857144</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="36">
         <v>0.8195836690304974</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="35">
         <v>-3.3333333333334103E-2</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="36">
         <v>1.3031720622798341E-2</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-    </row>
-    <row r="10" spans="1:20" ht="25.5">
-      <c r="A10" s="16" t="s">
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+    </row>
+    <row r="10" spans="1:20" ht="51">
+      <c r="A10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="7">
         <v>0.31125000000000003</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="8">
         <v>0</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="7">
         <v>0.47499999999999998</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="8">
         <v>0.51554</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="7">
         <v>0.28857100000000002</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="9">
         <v>1</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="7">
         <v>-1.5333300000000001</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="8">
         <v>-1.7495400000000001</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:20" ht="25.5">
-      <c r="A11" s="16" t="s">
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:20" ht="51">
+      <c r="A11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="7">
         <v>0.222301</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="8">
         <v>0.208672</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="7">
         <v>0.58186499999999997</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="8">
         <v>0.68583899999999998</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="7">
         <v>0.49188300000000001</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="8">
         <v>0.52303599999999995</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="7">
         <v>-2.1032799999999998</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="8">
         <v>-2.65781</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="1:20" ht="38.25">
-      <c r="A12" s="16" t="s">
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:20" ht="51">
+      <c r="A12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="7">
         <v>0.17394200000000001</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="9">
         <v>0.27035900000000002</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="7">
         <v>0.71162400000000003</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="8">
         <v>0.65551700000000002</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="7">
         <v>0.60241699999999998</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="8">
         <v>0.38203599999999999</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="7">
         <v>-2.7953299999999999</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="8">
         <v>-2.4960900000000001</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="1:20" ht="38.25">
-      <c r="A13" s="16" t="s">
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:20" ht="51">
+      <c r="A13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="7">
         <v>0.18480199999999999</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="8">
         <v>0.28591506183035997</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="7">
         <v>0.70764199999999999</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="8">
         <v>0.66456494218078799</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="8">
         <v>0.34647985867345599</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="7">
         <v>-2.7740900000000002</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="8">
         <v>-2.5443463582975299</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="K13" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="16" t="s">
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:20" ht="25.5">
+      <c r="A14" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="7">
         <v>0.62313700000000005</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="8">
         <v>0.32256557835843302</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="7">
         <v>1.22099</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="8">
         <v>0.76293989227944703</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="7">
         <v>-0.424313</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="8">
         <v>0.26270724946643798</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="7">
         <v>-5.5119699999999998</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="8">
         <v>-3.0690127588237099</v>
       </c>
       <c r="K14" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="L14" s="7"/>
-    </row>
-    <row r="16" spans="1:20" ht="15">
-      <c r="B16" s="5"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-    </row>
-    <row r="17" spans="4:7" ht="15">
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="4:7" ht="15">
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="B16" s="4"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+    </row>
+    <row r="17" spans="4:7">
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="18" spans="4:7">
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1337,23 +1366,23 @@
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="11" max="11" width="26.28515625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="17"/>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="14"/>
+      <c r="B1" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="2" spans="1:11" ht="38.25">
       <c r="A2" s="2" t="s">
@@ -1365,25 +1394,25 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="23" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="23" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -1391,37 +1420,37 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="38.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="24">
         <v>3.2483399293662993E-2</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="25">
         <v>9.4142485098027862E-2</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="24">
         <v>0.31771473488846602</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="25">
         <v>0.45156274261001478</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="24">
         <v>0.96825907840447789</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="25">
         <v>0.90800934313278414</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="24">
         <v>0.2756104044542973</v>
       </c>
-      <c r="J3" s="34">
+      <c r="J3" s="25">
         <v>-2.9563053150833959E-2</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="18" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1437,35 +1466,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B527EF86-4A54-4F4D-970E-64D58FC42215}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14" style="27" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="27"/>
-    <col min="4" max="4" width="10" style="27" customWidth="1"/>
-    <col min="5" max="10" width="9.140625" style="27"/>
-    <col min="11" max="11" width="21.42578125" style="27" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="27"/>
+    <col min="1" max="1" width="14" style="22" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="22"/>
+    <col min="4" max="4" width="10" style="22" customWidth="1"/>
+    <col min="5" max="10" width="9.140625" style="22"/>
+    <col min="11" max="11" width="21.42578125" style="22" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="17"/>
-      <c r="B1" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
     </row>
     <row r="2" spans="1:11" ht="25.5">
       <c r="A2" s="2" t="s">
@@ -1477,25 +1506,25 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="23" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="23" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -1503,37 +1532,37 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="38.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="20">
         <v>0.62313700000000005</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="9">
         <v>0.32256557835843302</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="20">
         <v>1.22099</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="9">
         <v>0.76293989227944703</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="20">
         <v>-0.424313</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="9">
         <v>0.26270724946643798</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="20">
         <v>-5.5119699999999998</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="9">
         <v>-3.0690127588237099</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="21" t="s">
         <v>42</v>
       </c>
     </row>
